--- a/layoutsDB4_4.xlsx
+++ b/layoutsDB4_4.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bradbury04_04\climatePrisms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="150" windowWidth="27795" windowHeight="10740"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="226">
   <si>
     <t>121</t>
   </si>
@@ -689,6 +694,9 @@
   </si>
   <si>
     <t>&amp;&amp;&amp;&amp;Albedo_Def1.png</t>
+  </si>
+  <si>
+    <t>enlarge_image</t>
   </si>
 </sst>
 </file>
@@ -805,6 +813,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -852,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -887,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1096,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,19 +1121,19 @@
     <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="41.7109375" style="1"/>
+    <col min="7" max="8" width="17.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="41.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
@@ -1145,61 +1156,64 @@
         <v>220</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1217,29 +1231,31 @@
         <v>23</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1247,8 +1263,9 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1266,29 +1283,31 @@
         <v>28</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1296,8 +1315,9 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1315,29 +1335,31 @@
         <v>28</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -1345,8 +1367,9 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1364,29 +1387,31 @@
         <v>28</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1394,8 +1419,9 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1413,40 +1439,43 @@
         <v>132</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1464,40 +1493,43 @@
         <v>11</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="L7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1515,40 +1547,43 @@
         <v>11</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1566,40 +1601,43 @@
         <v>28</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -1617,29 +1655,31 @@
         <v>11</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1647,8 +1687,9 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -1666,29 +1707,31 @@
         <v>132</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1696,8 +1739,9 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -1715,40 +1759,43 @@
         <v>11</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -1766,40 +1813,43 @@
         <v>132</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="L13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -1817,29 +1867,31 @@
         <v>23</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1847,8 +1899,9 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -1866,40 +1919,43 @@
         <v>132</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="L15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -1917,29 +1973,31 @@
         <v>28</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="L16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1947,8 +2005,9 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -1966,40 +2025,43 @@
         <v>132</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2" t="s">
+      <c r="L17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -2017,40 +2079,43 @@
         <v>28</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2" t="s">
+      <c r="L18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -2068,29 +2133,31 @@
         <v>23</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2" t="s">
+      <c r="L19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -2098,8 +2165,9 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -2117,29 +2185,31 @@
         <v>132</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -2147,8 +2217,9 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -2170,40 +2241,43 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -2221,42 +2295,45 @@
         <v>11</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="L22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -2274,42 +2351,45 @@
         <v>11</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="L23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -2327,42 +2407,45 @@
         <v>11</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2" t="s">
+      <c r="L24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -2380,42 +2463,45 @@
         <v>11</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2" t="s">
+      <c r="L25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="2"/>
+      <c r="P25" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -2433,42 +2519,45 @@
         <v>11</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="2">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="L26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="2"/>
+      <c r="P26" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -2486,40 +2575,43 @@
         <v>11</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2" t="s">
+      <c r="L27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -2537,40 +2629,43 @@
         <v>11</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="2">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2" t="s">
+      <c r="L28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -2588,40 +2683,43 @@
         <v>11</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="2">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2" t="s">
+      <c r="L29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="2"/>
+      <c r="P29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -2643,40 +2741,43 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="L30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -2694,40 +2795,43 @@
         <v>23</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="L31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-      <c r="Y31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -2745,42 +2849,45 @@
         <v>11</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="2">
-        <v>1</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="L32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="2"/>
+      <c r="P32" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-      <c r="Y32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -2798,40 +2905,43 @@
         <v>132</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2" t="s">
+      <c r="L33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="2"/>
+      <c r="P33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
-      <c r="Y33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -2849,40 +2959,43 @@
         <v>11</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="2">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="L34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2" t="s">
+      <c r="O34" s="2"/>
+      <c r="P34" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-      <c r="Y34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -2900,29 +3013,31 @@
         <v>28</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="2">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2" t="s">
+      <c r="L35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="2"/>
+      <c r="P35" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -2930,8 +3045,9 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35" s="2"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -2949,40 +3065,43 @@
         <v>28</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="2">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2" t="s">
+      <c r="L36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2" t="s">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -3000,40 +3119,43 @@
         <v>28</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L37" s="2">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2" t="s">
+      <c r="L37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="2"/>
+      <c r="P37" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -3051,40 +3173,43 @@
         <v>28</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2" t="s">
+      <c r="L38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="2"/>
+      <c r="P38" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
-      <c r="Y38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -3102,40 +3227,43 @@
         <v>11</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="2">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2" t="s">
+      <c r="L39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
-      <c r="Y39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -3153,44 +3281,47 @@
         <v>23</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2" t="s">
+      <c r="L40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -3208,29 +3339,31 @@
         <v>132</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2" t="s">
+      <c r="L41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -3238,8 +3371,9 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41" s="2"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -3257,40 +3391,43 @@
         <v>28</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2" t="s">
+      <c r="L42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="2"/>
+      <c r="P42" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
-      <c r="Y42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -3308,42 +3445,45 @@
         <v>11</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="2">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2" t="s">
+      <c r="L43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="2"/>
+      <c r="P43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -3361,42 +3501,45 @@
         <v>11</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="2">
-        <v>1</v>
-      </c>
-      <c r="M44" s="2" t="s">
+      <c r="L44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="2"/>
+      <c r="P44" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
-      <c r="Y44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -3414,29 +3557,31 @@
         <v>23</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="2">
-        <v>1</v>
-      </c>
-      <c r="M45" s="2" t="s">
+      <c r="L45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2" t="s">
+      <c r="O45" s="2"/>
+      <c r="P45" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -3444,8 +3589,9 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45" s="2"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -3463,29 +3609,31 @@
         <v>132</v>
       </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="2">
-        <v>1</v>
-      </c>
-      <c r="M46" s="2" t="s">
+      <c r="L46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2" t="s">
+      <c r="O46" s="2"/>
+      <c r="P46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -3493,8 +3641,9 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z46" s="2"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -3512,42 +3661,45 @@
         <v>11</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="2">
-        <v>1</v>
-      </c>
-      <c r="M47" s="2" t="s">
+      <c r="L47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2" t="s">
+      <c r="O47" s="2"/>
+      <c r="P47" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -3565,42 +3717,45 @@
         <v>11</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J48" s="2"/>
       <c r="K48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="2">
-        <v>1</v>
-      </c>
-      <c r="M48" s="2" t="s">
+      <c r="L48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2" t="s">
+      <c r="O48" s="2"/>
+      <c r="P48" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-      <c r="Y48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -3618,42 +3773,45 @@
         <v>11</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="2">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2" t="s">
+      <c r="L49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2" t="s">
+      <c r="O49" s="2"/>
+      <c r="P49" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
-      <c r="Y49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -3671,42 +3829,45 @@
         <v>11</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L50" s="2">
-        <v>1</v>
-      </c>
-      <c r="M50" s="2" t="s">
+      <c r="L50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2" t="s">
+      <c r="O50" s="2"/>
+      <c r="P50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
-      <c r="Y50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -3728,40 +3889,43 @@
       <c r="G51" s="2">
         <v>1</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2" t="s">
+      <c r="O51" s="2"/>
+      <c r="P51" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2" t="s">
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-      <c r="Y51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -3779,40 +3943,43 @@
         <v>23</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="2">
-        <v>1</v>
-      </c>
-      <c r="M52" s="2" t="s">
+      <c r="L52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1</v>
+      </c>
+      <c r="N52" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2" t="s">
+      <c r="O52" s="2"/>
+      <c r="P52" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -3830,29 +3997,31 @@
         <v>132</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J53" s="2"/>
       <c r="K53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L53" s="2">
-        <v>1</v>
-      </c>
-      <c r="M53" s="2" t="s">
+      <c r="L53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2" t="s">
+      <c r="O53" s="2"/>
+      <c r="P53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
@@ -3860,8 +4029,9 @@
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z53" s="2"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -3879,42 +4049,45 @@
         <v>11</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J54" s="2"/>
       <c r="K54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="2">
-        <v>1</v>
-      </c>
-      <c r="M54" s="2" t="s">
+      <c r="L54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2" t="s">
+      <c r="O54" s="2"/>
+      <c r="P54" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
-      <c r="Y54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>0</v>
       </c>
@@ -3932,42 +4105,45 @@
         <v>11</v>
       </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L55" s="2">
-        <v>1</v>
-      </c>
-      <c r="M55" s="2" t="s">
+      <c r="L55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2" t="s">
+      <c r="O55" s="2"/>
+      <c r="P55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-      <c r="Y55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>0</v>
       </c>
@@ -3985,36 +4161,39 @@
         <v>23</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2">
-        <v>1</v>
-      </c>
-      <c r="M56" s="2" t="s">
+      <c r="L56" s="2"/>
+      <c r="M56" s="2">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2" t="s">
+      <c r="O56" s="2"/>
+      <c r="P56" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
-      <c r="Y56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>0</v>
       </c>
@@ -4032,40 +4211,43 @@
         <v>11</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J57" s="2"/>
       <c r="K57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="2">
-        <v>1</v>
-      </c>
-      <c r="M57" s="2" t="s">
+      <c r="L57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2" t="s">
+      <c r="O57" s="2"/>
+      <c r="P57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
-      <c r="Y57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -4083,29 +4265,31 @@
         <v>148</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="2"/>
+      <c r="K58" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1</v>
-      </c>
-      <c r="M58" s="2" t="s">
+      <c r="L58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1</v>
+      </c>
+      <c r="N58" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2" t="s">
+      <c r="O58" s="2"/>
+      <c r="P58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -4113,8 +4297,9 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z58" s="2"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>0</v>
       </c>
@@ -4132,42 +4317,45 @@
         <v>23</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J59" s="2"/>
       <c r="K59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="2">
-        <v>1</v>
-      </c>
-      <c r="M59" s="2" t="s">
+      <c r="L59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2" t="s">
+      <c r="O59" s="2"/>
+      <c r="P59" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
-      <c r="Y59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -4185,42 +4373,45 @@
         <v>148</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="2">
-        <v>1</v>
-      </c>
-      <c r="M60" s="2" t="s">
+      <c r="L60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1</v>
+      </c>
+      <c r="N60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2" t="s">
+      <c r="O60" s="2"/>
+      <c r="P60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
-      <c r="Y60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -4238,40 +4429,43 @@
         <v>11</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J61" s="2"/>
       <c r="K61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L61" s="2">
-        <v>1</v>
-      </c>
-      <c r="M61" s="2" t="s">
+      <c r="L61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1</v>
+      </c>
+      <c r="N61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2" t="s">
+      <c r="O61" s="2"/>
+      <c r="P61" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
-      <c r="Y61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>0</v>
       </c>
@@ -4289,40 +4483,43 @@
         <v>132</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J62" s="2"/>
       <c r="K62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="2">
-        <v>1</v>
-      </c>
-      <c r="M62" s="2" t="s">
+      <c r="L62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1</v>
+      </c>
+      <c r="N62" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2" t="s">
+      <c r="O62" s="2"/>
+      <c r="P62" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
-      <c r="Y62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>0</v>
       </c>
@@ -4338,40 +4535,43 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L63" s="2">
-        <v>1</v>
-      </c>
-      <c r="M63" s="2" t="s">
+      <c r="L63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2" t="s">
+      <c r="O63" s="2"/>
+      <c r="P63" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
-      <c r="Y63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>0</v>
       </c>
@@ -4389,40 +4589,43 @@
         <v>11</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J64" s="2"/>
       <c r="K64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L64" s="2">
-        <v>1</v>
-      </c>
-      <c r="M64" s="2" t="s">
+      <c r="L64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2" t="s">
+      <c r="O64" s="2"/>
+      <c r="P64" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
-      <c r="Y64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>0</v>
       </c>
@@ -4440,42 +4643,45 @@
         <v>11</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J65" s="2"/>
       <c r="K65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L65" s="2">
-        <v>1</v>
-      </c>
-      <c r="M65" s="2" t="s">
+      <c r="L65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1</v>
+      </c>
+      <c r="N65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2" t="s">
+      <c r="O65" s="2"/>
+      <c r="P65" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
-      <c r="Y65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>0</v>
       </c>
@@ -4493,40 +4699,43 @@
         <v>132</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J66" s="2"/>
       <c r="K66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="2">
-        <v>1</v>
-      </c>
-      <c r="M66" s="2" t="s">
+      <c r="L66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1</v>
+      </c>
+      <c r="N66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2" t="s">
+      <c r="O66" s="2"/>
+      <c r="P66" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
-      <c r="Y66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>0</v>
       </c>
@@ -4544,42 +4753,45 @@
         <v>11</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J67" s="2"/>
       <c r="K67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L67" s="2">
-        <v>1</v>
-      </c>
-      <c r="M67" s="2" t="s">
+      <c r="L67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2" t="s">
+      <c r="O67" s="2"/>
+      <c r="P67" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
-      <c r="Y67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>0</v>
       </c>
@@ -4597,40 +4809,43 @@
         <v>11</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J68" s="2"/>
       <c r="K68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L68" s="2">
-        <v>1</v>
-      </c>
-      <c r="M68" s="2" t="s">
+      <c r="L68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2" t="s">
+      <c r="O68" s="2"/>
+      <c r="P68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
-      <c r="Y68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>0</v>
       </c>
@@ -4648,40 +4863,43 @@
         <v>11</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J69" s="2"/>
       <c r="K69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L69" s="2">
-        <v>1</v>
-      </c>
-      <c r="M69" s="2" t="s">
+      <c r="L69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1</v>
+      </c>
+      <c r="N69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2" t="s">
+      <c r="O69" s="2"/>
+      <c r="P69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
-      <c r="Y69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>0</v>
       </c>
@@ -4699,40 +4917,43 @@
         <v>23</v>
       </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J70" s="2"/>
       <c r="K70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L70" s="2">
-        <v>1</v>
-      </c>
-      <c r="M70" s="2" t="s">
+      <c r="L70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M70" s="2">
+        <v>1</v>
+      </c>
+      <c r="N70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2" t="s">
+      <c r="O70" s="2"/>
+      <c r="P70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
-      <c r="Y70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>0</v>
       </c>
@@ -4750,40 +4971,43 @@
         <v>28</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J71" s="2"/>
       <c r="K71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L71" s="2">
-        <v>1</v>
-      </c>
-      <c r="M71" s="2" t="s">
+      <c r="L71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2" t="s">
+      <c r="O71" s="2"/>
+      <c r="P71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
-      <c r="Y71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>0</v>
       </c>
@@ -4801,42 +5025,45 @@
         <v>23</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J72" s="2"/>
       <c r="K72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="2">
-        <v>1</v>
-      </c>
-      <c r="M72" s="2" t="s">
+      <c r="L72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="2">
+        <v>1</v>
+      </c>
+      <c r="N72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2" t="s">
+      <c r="O72" s="2"/>
+      <c r="P72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
-      <c r="Y72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>0</v>
       </c>
@@ -4854,42 +5081,45 @@
         <v>11</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J73" s="2"/>
       <c r="K73" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L73" s="2">
-        <v>1</v>
-      </c>
-      <c r="M73" s="2" t="s">
+      <c r="L73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2" t="s">
+      <c r="O73" s="2"/>
+      <c r="P73" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
-      <c r="Y73" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>0</v>
       </c>
@@ -4907,40 +5137,43 @@
         <v>28</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
       <c r="I74" s="2"/>
-      <c r="J74" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J74" s="2"/>
       <c r="K74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L74" s="2">
-        <v>1</v>
-      </c>
-      <c r="M74" s="2" t="s">
+      <c r="L74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2" t="s">
+      <c r="O74" s="2"/>
+      <c r="P74" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
-      <c r="Y74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>0</v>
       </c>
@@ -4958,40 +5191,43 @@
         <v>11</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
       <c r="I75" s="2"/>
-      <c r="J75" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J75" s="2"/>
       <c r="K75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L75" s="2">
-        <v>1</v>
-      </c>
-      <c r="M75" s="2" t="s">
+      <c r="L75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2" t="s">
+      <c r="O75" s="2"/>
+      <c r="P75" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
-      <c r="Y75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>0</v>
       </c>
@@ -5009,29 +5245,31 @@
         <v>23</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
       <c r="I76" s="2"/>
-      <c r="J76" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J76" s="2"/>
       <c r="K76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="2">
-        <v>1</v>
-      </c>
-      <c r="M76" s="2" t="s">
+      <c r="L76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="2">
+        <v>1</v>
+      </c>
+      <c r="N76" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2" t="s">
+      <c r="O76" s="2"/>
+      <c r="P76" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
@@ -5039,8 +5277,9 @@
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z76" s="2"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -5058,40 +5297,43 @@
         <v>132</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
       <c r="I77" s="2"/>
-      <c r="J77" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J77" s="2"/>
       <c r="K77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L77" s="2">
-        <v>1</v>
-      </c>
-      <c r="M77" s="2" t="s">
+      <c r="L77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M77" s="2">
+        <v>1</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2" t="s">
+      <c r="O77" s="2"/>
+      <c r="P77" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
-      <c r="Y77" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -5109,40 +5351,43 @@
         <v>28</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
       <c r="I78" s="2"/>
-      <c r="J78" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J78" s="2"/>
       <c r="K78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L78" s="2">
-        <v>1</v>
-      </c>
-      <c r="M78" s="2" t="s">
+      <c r="L78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M78" s="2">
+        <v>1</v>
+      </c>
+      <c r="N78" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2" t="s">
+      <c r="O78" s="2"/>
+      <c r="P78" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
-      <c r="Y78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>0</v>
       </c>
@@ -5160,40 +5405,43 @@
         <v>11</v>
       </c>
       <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
       <c r="I79" s="2"/>
-      <c r="J79" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J79" s="2"/>
       <c r="K79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L79" s="2">
-        <v>1</v>
-      </c>
-      <c r="M79" s="2" t="s">
+      <c r="L79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M79" s="2">
+        <v>1</v>
+      </c>
+      <c r="N79" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2" t="s">
+      <c r="O79" s="2"/>
+      <c r="P79" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
-      <c r="Y79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>0</v>
       </c>
@@ -5211,40 +5459,43 @@
         <v>23</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
       <c r="I80" s="2"/>
-      <c r="J80" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J80" s="2"/>
       <c r="K80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="2">
-        <v>1</v>
-      </c>
-      <c r="M80" s="2" t="s">
+      <c r="L80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M80" s="2">
+        <v>1</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2" t="s">
+      <c r="O80" s="2"/>
+      <c r="P80" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
-      <c r="Y80" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>0</v>
       </c>
@@ -5262,42 +5513,45 @@
         <v>11</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="2">
-        <v>1</v>
-      </c>
-      <c r="M81" s="2" t="s">
+      <c r="L81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="2">
+        <v>1</v>
+      </c>
+      <c r="N81" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2" t="s">
+      <c r="O81" s="2"/>
+      <c r="P81" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
-      <c r="Y81" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>0</v>
       </c>
@@ -5315,40 +5569,43 @@
         <v>11</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
       <c r="I82" s="2"/>
-      <c r="J82" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J82" s="2"/>
       <c r="K82" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L82" s="2">
-        <v>1</v>
-      </c>
-      <c r="M82" s="2" t="s">
+      <c r="L82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M82" s="2">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2" t="s">
+      <c r="O82" s="2"/>
+      <c r="P82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
-      <c r="Y82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>0</v>
       </c>
@@ -5366,40 +5623,43 @@
         <v>11</v>
       </c>
       <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
       <c r="I83" s="2"/>
-      <c r="J83" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J83" s="2"/>
       <c r="K83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="2">
-        <v>1</v>
-      </c>
-      <c r="M83" s="2" t="s">
+      <c r="L83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="2">
+        <v>1</v>
+      </c>
+      <c r="N83" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2" t="s">
+      <c r="O83" s="2"/>
+      <c r="P83" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
-      <c r="Y83" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>0</v>
       </c>
@@ -5417,40 +5677,43 @@
         <v>11</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
       <c r="I84" s="2"/>
-      <c r="J84" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J84" s="2"/>
       <c r="K84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L84" s="2">
-        <v>1</v>
-      </c>
-      <c r="M84" s="2" t="s">
+      <c r="L84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M84" s="2">
+        <v>1</v>
+      </c>
+      <c r="N84" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2" t="s">
+      <c r="O84" s="2"/>
+      <c r="P84" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
-      <c r="Y84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>0</v>
       </c>
@@ -5472,40 +5735,43 @@
       <c r="G85" s="2">
         <v>1</v>
       </c>
-      <c r="H85" s="2"/>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
       <c r="I85" s="2"/>
-      <c r="J85" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J85" s="2"/>
       <c r="K85" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L85" s="2">
-        <v>0</v>
-      </c>
-      <c r="M85" s="2" t="s">
+      <c r="L85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0</v>
+      </c>
+      <c r="N85" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2" t="s">
+      <c r="O85" s="2"/>
+      <c r="P85" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2" t="s">
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
-      <c r="Y85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>0</v>
       </c>
@@ -5523,29 +5789,31 @@
         <v>219</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
       <c r="I86" s="2"/>
-      <c r="J86" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J86" s="2"/>
       <c r="K86" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L86" s="2">
-        <v>1</v>
-      </c>
-      <c r="M86" s="2" t="s">
+      <c r="L86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M86" s="2">
+        <v>1</v>
+      </c>
+      <c r="N86" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2" t="s">
+      <c r="O86" s="2"/>
+      <c r="P86" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
@@ -5553,10 +5821,11 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Z85">
-    <sortCondition ref="M1"/>
+  <sortState ref="A2:AA85">
+    <sortCondition ref="N1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/layoutsDB4_4.xlsx
+++ b/layoutsDB4_4.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="244">
   <si>
     <t>121</t>
   </si>
@@ -96,9 +96,6 @@
     <t>RetroTS_D_1.png</t>
   </si>
   <si>
-    <t>&amp;&amp;&amp;&amp;RetroTS_P_1.png</t>
-  </si>
-  <si>
     <t>152</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>IceWedgePlog_int1.png</t>
   </si>
   <si>
-    <t>&amp;&amp;&amp;&amp;IWP_D_1.png, &amp;&amp;&amp;&amp;IWP_SD_2.png</t>
-  </si>
-  <si>
     <t>132</t>
   </si>
   <si>
@@ -441,9 +435,6 @@
     <t>LAKES211a.png</t>
   </si>
   <si>
-    <t>&amp;&amp;&amp;&amp;Perm_def.png, &amp;&amp;&amp;&amp;Permafrost_D_2.png</t>
-  </si>
-  <si>
     <t>&amp;&amp;&amp;&amp;Perm_Poem1.png</t>
   </si>
   <si>
@@ -483,9 +474,6 @@
     <t>IW_poly_video.png</t>
   </si>
   <si>
-    <t>&amp;&amp;&amp;&amp;Perm_def.png,&amp;&amp;&amp;&amp;Permafrost_D_2.png</t>
-  </si>
-  <si>
     <t>ClimateandGreenhouseGasesv1.png</t>
   </si>
   <si>
@@ -654,9 +642,6 @@
     <t>&amp;&amp;&amp;&amp;IWP_impact2.png</t>
   </si>
   <si>
-    <t>&amp;&amp;&amp;&amp;Permafrost_P_2.png, 7.png, &amp;&amp;&amp;&amp;120_Perm_P_5.png, &amp;&amp;&amp;&amp;120_Perm_P_6.png</t>
-  </si>
-  <si>
     <t>&amp;&amp;&amp;&amp;Terrestrial_Def_1.png, &amp;&amp;&amp;&amp;100_Terrestrial_Def1b.png</t>
   </si>
   <si>
@@ -693,10 +678,79 @@
     <t>&amp;&amp;&amp;&amp;erosion1.png, &amp;&amp;&amp;&amp;erosion2.png</t>
   </si>
   <si>
-    <t>&amp;&amp;&amp;&amp;Albedo_Def1.png</t>
-  </si>
-  <si>
     <t>enlarge_image</t>
+  </si>
+  <si>
+    <t>sw_pm5.png</t>
+  </si>
+  <si>
+    <t>sw_pm10.png</t>
+  </si>
+  <si>
+    <t>121_Perm_Def.png</t>
+  </si>
+  <si>
+    <t>121Perm_Def.png</t>
+  </si>
+  <si>
+    <t>122_Perm_Problem.png</t>
+  </si>
+  <si>
+    <t>122c_Problem.png</t>
+  </si>
+  <si>
+    <t>122d_Perm_problem.png</t>
+  </si>
+  <si>
+    <t>151_RTS_P2.png</t>
+  </si>
+  <si>
+    <t>152_RTS_impact.png</t>
+  </si>
+  <si>
+    <t>IWP_Def2b.png</t>
+  </si>
+  <si>
+    <t>MessageSnowSwirl.png</t>
+  </si>
+  <si>
+    <t>340_Def_Albedo_6.png</t>
+  </si>
+  <si>
+    <t>eddies_pt1.png</t>
+  </si>
+  <si>
+    <t>125, 340</t>
+  </si>
+  <si>
+    <t>albedo, permafrost</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;Permafrost_P_2.png, 7.png, &amp;&amp;&amp;&amp;120_Perm_P_5.png, &amp;&amp;&amp;&amp;120_Perm_P_6.png, 122_Perm_Problem.png, 122c_Problem.png, 122d_Perm_problem.png</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;Perm_def.png, &amp;&amp;&amp;&amp;Permafrost_D_2.png, &amp;&amp;&amp;&amp;121_Perm_Def.png, &amp;&amp;&amp;&amp;121Perm_Def.png</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;RetroTS_P_1.png, &amp;&amp;&amp;&amp;151_RTS_P2.png</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;150RetroTS_I_3.png, &amp;&amp;&amp;&amp;152_RTS_impact.png</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;Albedo_Def1.png, &amp;&amp;&amp;&amp;340_Def_Albedo_6.png</t>
+  </si>
+  <si>
+    <t>carbon, rivers, terrestrial</t>
+  </si>
+  <si>
+    <t>212, 101, 324, 208</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;IWP_D_1.png, &amp;&amp;&amp;&amp;IWP_SD_2.png, &amp;&amp;&amp;&amp;IWP_Def2b.png</t>
+  </si>
+  <si>
+    <t>####MessageSnowSwirl.mp4</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,96 +1175,96 @@
     <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="41.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -1219,10 +1273,10 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -1231,30 +1285,30 @@
         <v>23</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -1271,42 +1325,42 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1323,42 +1377,42 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1375,42 +1429,42 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1427,42 +1481,42 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1481,10 +1535,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -1493,30 +1547,30 @@
         <v>11</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1535,10 +1589,10 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -1547,30 +1601,30 @@
         <v>11</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1589,42 +1643,42 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1643,7 +1697,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -1655,30 +1709,30 @@
         <v>11</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1695,42 +1749,42 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1759,30 +1813,30 @@
         <v>11</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1801,42 +1855,42 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2" t="s">
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1855,10 +1909,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>2</v>
@@ -1867,30 +1921,30 @@
         <v>23</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1907,42 +1961,42 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2" t="s">
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1961,42 +2015,42 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -2013,42 +2067,42 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2" t="s">
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -2073,36 +2127,36 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -2121,10 +2175,10 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2</v>
@@ -2133,30 +2187,30 @@
         <v>23</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -2173,42 +2227,42 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2" t="s">
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -2224,47 +2278,47 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -2286,7 +2340,7 @@
         <v>340</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -2294,33 +2348,33 @@
       <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -2342,7 +2396,7 @@
         <v>340</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -2350,33 +2404,33 @@
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="2">
-        <v>1</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -2395,10 +2449,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -2406,33 +2460,33 @@
       <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -2451,10 +2505,10 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -2462,33 +2516,33 @@
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -2507,10 +2561,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -2518,33 +2572,33 @@
       <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -2563,10 +2617,10 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -2575,30 +2629,30 @@
         <v>11</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2" t="s">
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -2617,10 +2671,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -2629,30 +2683,30 @@
         <v>11</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2" t="s">
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -2671,10 +2725,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -2683,30 +2737,30 @@
         <v>11</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2" t="s">
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -2724,47 +2778,47 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -2783,10 +2837,10 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -2795,30 +2849,30 @@
         <v>23</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" s="2">
-        <v>1</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2" t="s">
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -2840,7 +2894,7 @@
         <v>300</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -2848,33 +2902,33 @@
       <c r="F32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -2893,42 +2947,42 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="2">
-        <v>1</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -2947,10 +3001,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -2959,30 +3013,30 @@
         <v>11</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -3001,42 +3055,42 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="2">
-        <v>1</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -3053,42 +3107,42 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M36" s="2">
-        <v>1</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -3107,42 +3161,42 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M37" s="2">
-        <v>1</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -3161,42 +3215,42 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -3215,10 +3269,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -3227,30 +3281,30 @@
         <v>11</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -3269,10 +3323,10 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
@@ -3280,35 +3334,35 @@
       <c r="F40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1</v>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -3330,39 +3384,39 @@
         <v>113</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="2">
-        <v>1</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2" t="s">
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -3379,42 +3433,42 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="2">
-        <v>1</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -3436,7 +3490,7 @@
         <v>110</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -3444,33 +3498,33 @@
       <c r="F43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="2">
-        <v>1</v>
-      </c>
-      <c r="N43" s="2" t="s">
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
@@ -3489,10 +3543,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -3500,33 +3554,33 @@
       <c r="F44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
@@ -3545,10 +3599,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>2</v>
@@ -3557,30 +3611,30 @@
         <v>23</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
@@ -3597,42 +3651,42 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="2">
-        <v>1</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2" t="s">
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
@@ -3652,7 +3706,7 @@
         <v>200</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -3660,33 +3714,33 @@
       <c r="F47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="2">
-        <v>1</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
@@ -3708,7 +3762,7 @@
         <v>200</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
@@ -3716,33 +3770,33 @@
       <c r="F48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="2">
-        <v>1</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
@@ -3764,7 +3818,7 @@
         <v>200</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -3772,33 +3826,33 @@
       <c r="F49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="2">
-        <v>1</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
@@ -3820,7 +3874,7 @@
         <v>130</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -3828,33 +3882,33 @@
       <c r="F50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M50" s="2">
-        <v>1</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
@@ -3872,47 +3926,47 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G51" s="2">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -3931,10 +3985,10 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -3943,30 +3997,30 @@
         <v>23</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="2">
-        <v>1</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
@@ -3985,42 +4039,42 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M53" s="2">
-        <v>1</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2" t="s">
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
@@ -4040,7 +4094,7 @@
         <v>130</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -4048,33 +4102,33 @@
       <c r="F54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="2">
-        <v>1</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
@@ -4093,10 +4147,10 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -4104,33 +4158,33 @@
       <c r="F55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M55" s="2">
-        <v>1</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
@@ -4149,10 +4203,10 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -4161,26 +4215,26 @@
         <v>23</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2">
-        <v>1</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
@@ -4202,7 +4256,7 @@
         <v>211</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -4211,30 +4265,30 @@
         <v>11</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="2">
-        <v>1</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2" t="s">
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
@@ -4253,42 +4307,42 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="K58" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="2">
-        <v>1</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
@@ -4316,33 +4370,33 @@
       <c r="F59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="2">
-        <v>1</v>
-      </c>
-      <c r="N59" s="2" t="s">
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
@@ -4370,35 +4424,35 @@
         <v>7</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="2">
-        <v>1</v>
-      </c>
-      <c r="N60" s="2" t="s">
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2" t="s">
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
@@ -4429,30 +4483,30 @@
         <v>11</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M61" s="2">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
@@ -4471,42 +4525,42 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="2">
-        <v>1</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
@@ -4531,34 +4585,34 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M63" s="2">
-        <v>1</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="L63" s="2">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
@@ -4589,30 +4643,30 @@
         <v>11</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M64" s="2">
-        <v>1</v>
-      </c>
-      <c r="N64" s="2" t="s">
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
@@ -4642,33 +4696,33 @@
       <c r="F65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M65" s="2">
-        <v>1</v>
-      </c>
-      <c r="N65" s="2" t="s">
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
@@ -4687,42 +4741,42 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="2">
-        <v>1</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="L66" s="2">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
@@ -4752,33 +4806,33 @@
       <c r="F67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M67" s="2">
-        <v>1</v>
-      </c>
-      <c r="N67" s="2" t="s">
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
@@ -4809,30 +4863,30 @@
         <v>11</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="2">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M68" s="2">
-        <v>1</v>
-      </c>
-      <c r="N68" s="2" t="s">
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2" t="s">
+      <c r="N68" s="2"/>
+      <c r="O68" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
@@ -4863,30 +4917,30 @@
         <v>11</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M69" s="2">
-        <v>1</v>
-      </c>
-      <c r="N69" s="2" t="s">
+      <c r="L69" s="2">
+        <v>1</v>
+      </c>
+      <c r="M69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2" t="s">
+      <c r="N69" s="2"/>
+      <c r="O69" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
@@ -4917,30 +4971,30 @@
         <v>23</v>
       </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M70" s="2">
-        <v>1</v>
-      </c>
-      <c r="N70" s="2" t="s">
+      <c r="L70" s="2">
+        <v>1</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
@@ -4959,42 +5013,42 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M71" s="2">
-        <v>1</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
@@ -5013,10 +5067,10 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>22</v>
@@ -5024,33 +5078,33 @@
       <c r="F72" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="2">
-        <v>1</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="L72" s="2">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
@@ -5072,7 +5126,7 @@
         <v>210</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -5080,33 +5134,33 @@
       <c r="F73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K73" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M73" s="2">
-        <v>1</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -5125,42 +5179,42 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="2">
-        <v>0</v>
-      </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M74" s="2">
-        <v>1</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2" t="s">
+      <c r="L74" s="2">
+        <v>1</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
@@ -5179,10 +5233,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -5191,30 +5245,30 @@
         <v>11</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="2">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M75" s="2">
-        <v>1</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="L75" s="2">
+        <v>1</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
@@ -5233,10 +5287,10 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>2</v>
@@ -5245,30 +5299,30 @@
         <v>23</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="2">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="2">
-        <v>1</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="L76" s="2">
+        <v>1</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
@@ -5277,7 +5331,9 @@
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
+      <c r="Z76" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -5285,42 +5341,42 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="2">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M77" s="2">
-        <v>1</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2" t="s">
+      <c r="L77" s="2">
+        <v>1</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
@@ -5339,42 +5395,42 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L78" s="2">
+        <v>1</v>
+      </c>
+      <c r="M78" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M78" s="2">
-        <v>1</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
@@ -5393,10 +5449,10 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
@@ -5405,30 +5461,30 @@
         <v>11</v>
       </c>
       <c r="G79" s="2"/>
-      <c r="H79" s="2">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M79" s="2">
-        <v>1</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="L79" s="2">
+        <v>1</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
@@ -5447,10 +5503,10 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>22</v>
@@ -5459,30 +5515,30 @@
         <v>23</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M80" s="2">
-        <v>1</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="L80" s="2">
+        <v>1</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -5504,7 +5560,7 @@
         <v>140</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>10</v>
@@ -5512,33 +5568,33 @@
       <c r="F81" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2">
-        <v>0</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J81" s="2"/>
+      <c r="G81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="2">
-        <v>1</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="L81" s="2">
+        <v>1</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -5557,10 +5613,10 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
@@ -5569,30 +5625,30 @@
         <v>11</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="2">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K82" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M82" s="2">
-        <v>1</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2" t="s">
+      <c r="L82" s="2">
+        <v>1</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
@@ -5611,10 +5667,10 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
@@ -5623,30 +5679,30 @@
         <v>11</v>
       </c>
       <c r="G83" s="2"/>
-      <c r="H83" s="2">
-        <v>0</v>
-      </c>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="2">
-        <v>1</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2" t="s">
+      <c r="L83" s="2">
+        <v>1</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
@@ -5665,10 +5721,10 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
@@ -5677,30 +5733,30 @@
         <v>11</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="2">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M84" s="2">
-        <v>1</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2" t="s">
+      <c r="L84" s="2">
+        <v>1</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
@@ -5718,47 +5774,47 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G85" s="2">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2">
-        <v>0</v>
-      </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K85" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M85" s="2">
-        <v>0</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
@@ -5783,36 +5839,36 @@
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="2">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K86" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M86" s="2">
-        <v>1</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2" t="s">
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
@@ -5821,11 +5877,557 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
+      <c r="Z86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>344</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>121</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="2">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>121</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>122</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>122</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>122</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>151</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="2">
+        <v>1</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>152</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L95" s="2">
+        <v>1</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>340</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L97" s="2">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>131</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L98" s="2">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z100" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AA85">
-    <sortCondition ref="N1"/>
+  <sortState ref="A2:AB85">
+    <sortCondition ref="M1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
